--- a/OemCrawler/ScrappedUrls.xlsx
+++ b/OemCrawler/ScrappedUrls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OemCrawler\OemCrawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BCBA6AE9-BC49-4CFB-9643-893701B5D2E1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{999DD989-380B-4AC0-A9EC-8F8B7F1BE5EF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="3930" xr2:uid="{F69A7D32-42C2-400A-A28D-3279898DAC16}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Tool</t>
   </si>
@@ -61,13 +61,154 @@
   </si>
   <si>
     <t>https://www.motosport.com/motorcycle/oem-parts/suzuki/2018/gsxs750?ride=suzuki;gsxs750;2018&amp;mmy_source=oem</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/fe-250</t>
+  </si>
+  <si>
+    <t>Husqvarna</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/fe-250</t>
+  </si>
+  <si>
+    <t>מוצר ממופה ליותר מקטגוריה אחת</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/fe-250</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/te-250i</t>
+  </si>
+  <si>
+    <t>FE 350</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/fe-350</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/fe-350</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/fe-350</t>
+  </si>
+  <si>
+    <t>האם הסליקה מתבצעת מיידית?</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/fe-450</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/fe-450</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/fe-450</t>
+  </si>
+  <si>
+    <t>FE 250</t>
+  </si>
+  <si>
+    <t>TE 250i</t>
+  </si>
+  <si>
+    <t>FE 450</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/fe-501</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/fe-501</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/fe-501</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/701-enduro</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/701-enduro</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/701-enduro</t>
+  </si>
+  <si>
+    <t>701 ENDURO</t>
+  </si>
+  <si>
+    <t>FE 501</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/701-supermoto</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/701-supermoto</t>
+  </si>
+  <si>
+    <t>701 Supermoto</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/fc-250</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/fc-250</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/fc-250</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/tc-65</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/tc-65</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/tc-50</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/tc-50</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/fc-450</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/fc-450</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/fc-450</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/tc-125</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/tc-125</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/tc-125</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2015/tc-125</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2018/fc-350</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2017/fc-350</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2016/fc-350</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2015/fc350</t>
+  </si>
+  <si>
+    <t>https://www.motosport.com/dirtbike/oem-parts/husqvarna/2014/fc350</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +233,21 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -124,6 +280,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -440,36 +602,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E399E1BB-F0FD-41EB-B6B6-3E63F605B69F}">
-  <dimension ref="A1:E6"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="101.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -483,7 +650,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -497,7 +664,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -510,9 +677,8 @@
       <c r="D4" s="3">
         <v>2017</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -526,7 +692,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -539,13 +705,355 @@
       <c r="D6" s="3">
         <v>2018</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2016</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{6AE5D516-D44B-4947-AEC9-7422ED787D5B}"/>
+  <autoFilter ref="A1:D10" xr:uid="{6AE5D516-D44B-4947-AEC9-7422ED787D5B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Husqvarna"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{B8FB1C0A-FBC2-44DE-8D18-9268FDD541BA}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{2D72AB47-0BFE-4277-A951-BCBB1ED2F784}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>